--- a/resouces/ColumnExcel/tbl_user.xlsx
+++ b/resouces/ColumnExcel/tbl_user.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>列名</t>
   </si>
@@ -22,9 +22,6 @@
     <t>数据类型</t>
   </si>
   <si>
-    <t>主键</t>
-  </si>
-  <si>
     <t>是否非空</t>
   </si>
   <si>
@@ -35,9 +32,6 @@
   </si>
   <si>
     <t>int</t>
-  </si>
-  <si>
-    <t>PRI</t>
   </si>
   <si>
     <t>NO</t>
@@ -1057,21 +1051,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.05" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.05" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="10.5677966101695" customWidth="1"/>
     <col min="2" max="2" width="10.3305084745763" customWidth="1"/>
-    <col min="3" max="3" width="5.11016949152542" customWidth="1"/>
-    <col min="5" max="5" width="19.3389830508475" customWidth="1"/>
+    <col min="4" max="4" width="19.3389830508475" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1084,78 +1077,68 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="C5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:4">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
